--- a/Planning/Feuilles de route/Feuilles_de_route_05_29.xlsx
+++ b/Planning/Feuilles de route/Feuilles_de_route_05_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fef\Documents\DWWM_22238\ressources\Planning\Feuilles de route\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE2AF4F-1AF9-49F6-AE5E-0EB73D161B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B96723F-DB9B-4092-8314-2DE1B4796894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lundi</t>
   </si>
@@ -80,16 +80,20 @@
     <t>Aide à la réalisation de l'exercice</t>
   </si>
   <si>
-    <t>* Récap JS avec glossaire
-* Corrections des exercices</t>
+    <t>Semaine du 30/05 au 02/06</t>
+  </si>
+  <si>
+    <t>Anglais (4h)</t>
   </si>
   <si>
     <t>* Présentation du DOM
 * Gestion des événements
-* Contrôle de formulaire</t>
-  </si>
-  <si>
-    <t>Semaine du 30/05 au 02/06</t>
+* Contrôle de formulaire
+* Présentations exercices</t>
+  </si>
+  <si>
+    <t>* Récap de la semaine
+* Corrections des exercices</t>
   </si>
 </sst>
 </file>
@@ -105,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,18 +152,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -293,13 +285,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -619,7 +611,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -646,7 +638,7 @@
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -656,22 +648,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -682,7 +674,7 @@
       <c r="B5" s="16"/>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
